--- a/정기점검보고서(수정본).xlsx
+++ b/정기점검보고서(수정본).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\GSCharger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9474B0C8-A3F8-4125-89F2-1B87BD037A70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD17A2BC-60B5-4D74-93BF-782786DDE598}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="정기점검보고서" sheetId="2" r:id="rId1"/>
@@ -744,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -1621,6 +1621,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1654,7 +1789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1958,119 +2093,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2078,261 +2120,364 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="76" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="76" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="76" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="78" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="79" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2688,8 +2833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:I22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2706,33 +2851,33 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
       <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
       <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -2740,32 +2885,32 @@
       <c r="B5" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
       <c r="G5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="176"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="178"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
       <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
       <c r="G6" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H6" s="24"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="107"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125"/>
       <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -2783,85 +2928,85 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B8" s="199" t="s">
+      <c r="B8" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="202" t="s">
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="221" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="200"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="222"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="223"/>
       <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B9" s="203" t="s">
+      <c r="B9" s="153" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="230" t="s">
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="224" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="230"/>
-      <c r="I9" s="228"/>
-      <c r="J9" s="232"/>
+      <c r="H9" s="225"/>
+      <c r="I9" s="226"/>
+      <c r="J9" s="227"/>
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B10" s="203" t="s">
+      <c r="B10" s="153" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="231" t="s">
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="228" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="231"/>
-      <c r="I10" s="229"/>
-      <c r="J10" s="233"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="230"/>
+      <c r="J10" s="231"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B11" s="203" t="s">
+      <c r="B11" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="204"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="231" t="s">
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="228" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="231"/>
-      <c r="I11" s="229"/>
-      <c r="J11" s="233"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="230"/>
+      <c r="J11" s="231"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B12" s="206" t="s">
+      <c r="B12" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="207"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="207"/>
-      <c r="F12" s="208"/>
-      <c r="G12" s="209" t="s">
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="232" t="s">
         <v>135</v>
       </c>
-      <c r="H12" s="210" t="s">
+      <c r="H12" s="233" t="s">
         <v>120</v>
       </c>
-      <c r="I12" s="211"/>
-      <c r="J12" s="223"/>
+      <c r="I12" s="230"/>
+      <c r="J12" s="231"/>
       <c r="K12" s="15"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2873,17 +3018,17 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B13" s="212"/>
-      <c r="C13" s="224"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="224"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="210" t="s">
+      <c r="B13" s="142"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="234"/>
+      <c r="H13" s="233" t="s">
         <v>121</v>
       </c>
-      <c r="I13" s="214"/>
-      <c r="J13" s="225"/>
+      <c r="I13" s="235"/>
+      <c r="J13" s="236"/>
       <c r="K13" s="15"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2895,19 +3040,19 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="215"/>
-      <c r="C14" s="216"/>
-      <c r="D14" s="216"/>
-      <c r="E14" s="216"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="220" t="s">
+      <c r="B14" s="145"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="232" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="210" t="s">
+      <c r="H14" s="233" t="s">
         <v>120</v>
       </c>
-      <c r="I14" s="211"/>
-      <c r="J14" s="223"/>
+      <c r="I14" s="230"/>
+      <c r="J14" s="231"/>
       <c r="K14" s="15"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2919,25 +3064,25 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
+      <c r="B15" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="234" t="s">
+      <c r="C15" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="219" t="s">
+      <c r="D15" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="235" t="s">
+      <c r="E15" s="148" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="236"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="210" t="s">
+      <c r="F15" s="149"/>
+      <c r="G15" s="237"/>
+      <c r="H15" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="214"/>
-      <c r="J15" s="225"/>
+      <c r="I15" s="239"/>
+      <c r="J15" s="240"/>
       <c r="K15" s="15"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2949,17 +3094,17 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B16" s="145" t="s">
+      <c r="B16" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="197"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="226"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="136"/>
       <c r="K16" s="16"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2971,17 +3116,17 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="227"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="138"/>
       <c r="K17" s="16"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -3035,24 +3180,24 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
+      <c r="C20" s="105"/>
       <c r="D20" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="144" t="s">
+      <c r="E20" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="144"/>
+      <c r="F20" s="105"/>
       <c r="G20" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="144" t="s">
+      <c r="H20" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="144"/>
+      <c r="I20" s="105"/>
       <c r="J20" s="26" t="s">
         <v>3</v>
       </c>
@@ -3067,24 +3212,24 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B21" s="145" t="s">
+      <c r="B21" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="146"/>
+      <c r="C21" s="107"/>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="146" t="s">
+      <c r="E21" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="146"/>
+      <c r="F21" s="107"/>
       <c r="G21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="147" t="s">
+      <c r="H21" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="148"/>
+      <c r="I21" s="111"/>
       <c r="J21" s="27" t="s">
         <v>8</v>
       </c>
@@ -3099,24 +3244,24 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="146"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="146" t="s">
+      <c r="E22" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="146"/>
+      <c r="F22" s="107"/>
       <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="147" t="s">
+      <c r="H22" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="148"/>
+      <c r="I22" s="111"/>
       <c r="J22" s="27" t="s">
         <v>8</v>
       </c>
@@ -3131,18 +3276,18 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="140"/>
+      <c r="C23" s="109"/>
       <c r="D23" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="195"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="115"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="195"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="115"/>
       <c r="J23" s="29"/>
       <c r="K23" s="17"/>
       <c r="L23" s="1"/>
@@ -3197,24 +3342,24 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B26" s="143" t="s">
+      <c r="B26" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="144"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="144" t="s">
+      <c r="E26" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="144"/>
+      <c r="F26" s="105"/>
       <c r="G26" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="144" t="s">
+      <c r="H26" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="I26" s="144"/>
+      <c r="I26" s="105"/>
       <c r="J26" s="26" t="s">
         <v>3</v>
       </c>
@@ -3229,24 +3374,24 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="2:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="196" t="s">
+      <c r="B27" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="146"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="183" t="s">
+      <c r="E27" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="183"/>
+      <c r="F27" s="117"/>
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="147" t="s">
+      <c r="H27" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="148"/>
+      <c r="I27" s="111"/>
       <c r="J27" s="27" t="s">
         <v>8</v>
       </c>
@@ -3261,24 +3406,24 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="146"/>
+      <c r="C28" s="107"/>
       <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="183" t="s">
+      <c r="E28" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="183"/>
+      <c r="F28" s="117"/>
       <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="147" t="s">
+      <c r="H28" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="148"/>
+      <c r="I28" s="111"/>
       <c r="J28" s="27" t="s">
         <v>8</v>
       </c>
@@ -3293,20 +3438,20 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="140"/>
+      <c r="C29" s="109"/>
       <c r="D29" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="193" t="s">
+      <c r="E29" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="194"/>
+      <c r="F29" s="113"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="195"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="115"/>
       <c r="J29" s="29"/>
       <c r="K29" s="17"/>
       <c r="L29" s="1"/>
@@ -3361,24 +3506,24 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B32" s="143" t="s">
+      <c r="B32" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="144"/>
+      <c r="C32" s="105"/>
       <c r="D32" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="144" t="s">
+      <c r="E32" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="144"/>
+      <c r="F32" s="105"/>
       <c r="G32" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="144" t="s">
+      <c r="H32" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="I32" s="144"/>
+      <c r="I32" s="105"/>
       <c r="J32" s="26" t="s">
         <v>3</v>
       </c>
@@ -3393,24 +3538,24 @@
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="2:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="187" t="s">
+      <c r="B33" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="188"/>
+      <c r="C33" s="159"/>
       <c r="D33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="189" t="s">
+      <c r="E33" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="190"/>
+      <c r="F33" s="161"/>
       <c r="G33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="191" t="s">
+      <c r="H33" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="I33" s="192"/>
+      <c r="I33" s="163"/>
       <c r="J33" s="30" t="s">
         <v>8</v>
       </c>
@@ -3425,10 +3570,10 @@
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="179" t="s">
+      <c r="B34" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="180"/>
+      <c r="C34" s="127"/>
       <c r="D34" s="4" t="s">
         <v>8</v>
       </c>
@@ -3449,10 +3594,10 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="181" t="s">
+      <c r="B35" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="182"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="5" t="s">
         <v>8</v>
       </c>
@@ -3473,24 +3618,24 @@
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B36" s="145" t="s">
+      <c r="B36" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="146"/>
+      <c r="C36" s="107"/>
       <c r="D36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="183" t="s">
+      <c r="E36" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="183"/>
+      <c r="F36" s="117"/>
       <c r="G36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="147" t="s">
+      <c r="H36" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="148"/>
+      <c r="I36" s="111"/>
       <c r="J36" s="27" t="s">
         <v>8</v>
       </c>
@@ -3505,24 +3650,24 @@
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B37" s="145" t="s">
+      <c r="B37" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="146"/>
+      <c r="C37" s="107"/>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="184" t="s">
+      <c r="E37" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="185"/>
+      <c r="F37" s="132"/>
       <c r="G37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="119" t="s">
+      <c r="H37" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="I37" s="186"/>
+      <c r="I37" s="134"/>
       <c r="J37" s="27" t="s">
         <v>8</v>
       </c>
@@ -3537,19 +3682,19 @@
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="139" t="s">
+      <c r="B38" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140" t="s">
+      <c r="C38" s="109"/>
+      <c r="D38" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="172"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="130"/>
       <c r="K38" s="16"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -3603,24 +3748,24 @@
       <c r="S40" s="1"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B41" s="143" t="s">
+      <c r="B41" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="144"/>
+      <c r="C41" s="105"/>
       <c r="D41" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="144" t="s">
+      <c r="E41" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="144"/>
+      <c r="F41" s="105"/>
       <c r="G41" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="144" t="s">
+      <c r="H41" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="I41" s="144"/>
+      <c r="I41" s="105"/>
       <c r="J41" s="26" t="s">
         <v>3</v>
       </c>
@@ -3635,24 +3780,24 @@
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B42" s="145" t="s">
+      <c r="B42" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="146"/>
+      <c r="C42" s="107"/>
       <c r="D42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="146" t="s">
+      <c r="E42" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="146"/>
+      <c r="F42" s="107"/>
       <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="147" t="s">
+      <c r="H42" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="148"/>
+      <c r="I42" s="111"/>
       <c r="J42" s="27" t="s">
         <v>8</v>
       </c>
@@ -3667,24 +3812,24 @@
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="139" t="s">
+      <c r="B43" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="140"/>
+      <c r="C43" s="109"/>
       <c r="D43" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="140" t="s">
+      <c r="E43" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="140"/>
+      <c r="F43" s="109"/>
       <c r="G43" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="141" t="s">
+      <c r="H43" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="142"/>
+      <c r="I43" s="157"/>
       <c r="J43" s="29" t="s">
         <v>8</v>
       </c>
@@ -3741,24 +3886,24 @@
       <c r="S45" s="1"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B46" s="143" t="s">
+      <c r="B46" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="144"/>
+      <c r="C46" s="105"/>
       <c r="D46" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="143" t="s">
+      <c r="E46" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="144"/>
+      <c r="F46" s="105"/>
       <c r="G46" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="143" t="s">
+      <c r="H46" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="I46" s="144"/>
+      <c r="I46" s="105"/>
       <c r="J46" s="26" t="s">
         <v>3</v>
       </c>
@@ -3821,24 +3966,24 @@
       <c r="S48" s="1"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B49" s="169" t="s">
+      <c r="B49" s="172" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="170"/>
+      <c r="C49" s="173"/>
       <c r="D49" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="169" t="s">
+      <c r="E49" s="172" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="171"/>
+      <c r="F49" s="174"/>
       <c r="G49" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="169" t="s">
+      <c r="H49" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="I49" s="171"/>
+      <c r="I49" s="174"/>
       <c r="J49" s="93" t="s">
         <v>69</v>
       </c>
@@ -3860,10 +4005,10 @@
       <c r="D50" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="167" t="s">
+      <c r="E50" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="F50" s="168"/>
+      <c r="F50" s="171"/>
       <c r="G50" s="31" t="s">
         <v>8</v>
       </c>
@@ -3884,17 +4029,17 @@
       <c r="D51" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="167" t="s">
+      <c r="E51" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="168"/>
+      <c r="F51" s="171"/>
       <c r="G51" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="167" t="s">
+      <c r="H51" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="I51" s="168"/>
+      <c r="I51" s="171"/>
       <c r="J51" s="94" t="s">
         <v>117</v>
       </c>
@@ -3911,10 +4056,10 @@
       <c r="E52" s="53"/>
       <c r="F52" s="12"/>
       <c r="G52" s="54"/>
-      <c r="H52" s="167" t="s">
+      <c r="H52" s="170" t="s">
         <v>67</v>
       </c>
-      <c r="I52" s="168"/>
+      <c r="I52" s="171"/>
       <c r="J52" s="94" t="s">
         <v>68</v>
       </c>
@@ -3977,19 +4122,19 @@
       <c r="K55" s="17"/>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B56" s="151" t="s">
+      <c r="B56" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="152"/>
-      <c r="D56" s="163"/>
-      <c r="E56" s="157" t="s">
+      <c r="C56" s="165"/>
+      <c r="D56" s="166"/>
+      <c r="E56" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="158"/>
-      <c r="G56" s="151" t="s">
+      <c r="F56" s="180"/>
+      <c r="G56" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="H56" s="152"/>
+      <c r="H56" s="165"/>
       <c r="I56" s="73"/>
       <c r="J56" s="80" t="s">
         <v>77</v>
@@ -3997,13 +4142,13 @@
       <c r="K56" s="87"/>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B57" s="164"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="166"/>
-      <c r="E57" s="159"/>
-      <c r="F57" s="160"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="154"/>
+      <c r="B57" s="167"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="181"/>
+      <c r="F57" s="182"/>
+      <c r="G57" s="175"/>
+      <c r="H57" s="176"/>
       <c r="I57" s="41"/>
       <c r="J57" s="74"/>
       <c r="K57" s="90"/>
@@ -4014,12 +4159,12 @@
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="42"/>
-      <c r="E58" s="161" t="s">
+      <c r="E58" s="183" t="s">
         <v>89</v>
       </c>
-      <c r="F58" s="162"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="156"/>
+      <c r="F58" s="184"/>
+      <c r="G58" s="177"/>
+      <c r="H58" s="178"/>
       <c r="I58" s="71"/>
       <c r="J58" s="94" t="s">
         <v>90</v>
@@ -4032,10 +4177,10 @@
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="42"/>
-      <c r="E59" s="161" t="s">
+      <c r="E59" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="F59" s="162"/>
+      <c r="F59" s="184"/>
       <c r="G59" s="69" t="s">
         <v>81</v>
       </c>
@@ -4050,10 +4195,10 @@
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="42"/>
-      <c r="E60" s="161" t="s">
+      <c r="E60" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="F60" s="162"/>
+      <c r="F60" s="184"/>
       <c r="G60" s="69" t="s">
         <v>82</v>
       </c>
@@ -4068,10 +4213,10 @@
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="42"/>
-      <c r="E61" s="161" t="s">
+      <c r="E61" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="F61" s="162"/>
+      <c r="F61" s="184"/>
       <c r="G61" s="69" t="s">
         <v>83</v>
       </c>
@@ -4151,22 +4296,22 @@
       <c r="S65" s="1"/>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B66" s="143" t="s">
+      <c r="B66" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="144"/>
+      <c r="C66" s="105"/>
       <c r="D66" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="144" t="s">
+      <c r="E66" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="F66" s="144"/>
+      <c r="F66" s="105"/>
       <c r="G66" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H66" s="112"/>
-      <c r="I66" s="112"/>
+      <c r="H66" s="185"/>
+      <c r="I66" s="185"/>
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
       <c r="L66" s="1"/>
@@ -4179,22 +4324,22 @@
       <c r="S66" s="1"/>
     </row>
     <row r="67" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="139" t="s">
+      <c r="B67" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="140"/>
+      <c r="C67" s="109"/>
       <c r="D67" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="140" t="s">
+      <c r="E67" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="F67" s="140"/>
+      <c r="F67" s="109"/>
       <c r="G67" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H67" s="150"/>
-      <c r="I67" s="150"/>
+      <c r="H67" s="186"/>
+      <c r="I67" s="186"/>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
       <c r="L67" s="1"/>
@@ -4249,24 +4394,24 @@
       <c r="S69" s="1"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B70" s="143" t="s">
+      <c r="B70" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="144"/>
+      <c r="C70" s="105"/>
       <c r="D70" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="144" t="s">
+      <c r="E70" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="F70" s="144"/>
+      <c r="F70" s="105"/>
       <c r="G70" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H70" s="144" t="s">
+      <c r="H70" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="I70" s="144"/>
+      <c r="I70" s="105"/>
       <c r="J70" s="26" t="s">
         <v>3</v>
       </c>
@@ -4281,24 +4426,24 @@
       <c r="S70" s="1"/>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B71" s="145" t="s">
+      <c r="B71" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="146"/>
+      <c r="C71" s="107"/>
       <c r="D71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="146" t="s">
+      <c r="E71" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="F71" s="146"/>
+      <c r="F71" s="107"/>
       <c r="G71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H71" s="147" t="s">
+      <c r="H71" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="I71" s="148"/>
+      <c r="I71" s="111"/>
       <c r="J71" s="27" t="s">
         <v>8</v>
       </c>
@@ -4313,22 +4458,22 @@
       <c r="S71" s="1"/>
     </row>
     <row r="72" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="139" t="s">
+      <c r="B72" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="140"/>
+      <c r="C72" s="109"/>
       <c r="D72" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="149" t="s">
+      <c r="E72" s="187" t="s">
         <v>99</v>
       </c>
-      <c r="F72" s="149"/>
+      <c r="F72" s="187"/>
       <c r="G72" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="141"/>
-      <c r="I72" s="142"/>
+      <c r="H72" s="156"/>
+      <c r="I72" s="157"/>
       <c r="J72" s="29"/>
       <c r="K72" s="17"/>
       <c r="L72" s="1"/>
@@ -4383,24 +4528,24 @@
       <c r="S74" s="1"/>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B75" s="143" t="s">
+      <c r="B75" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="144"/>
+      <c r="C75" s="105"/>
       <c r="D75" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="144" t="s">
+      <c r="E75" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="F75" s="144"/>
+      <c r="F75" s="105"/>
       <c r="G75" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H75" s="144" t="s">
+      <c r="H75" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="I75" s="144"/>
+      <c r="I75" s="105"/>
       <c r="J75" s="26" t="s">
         <v>3</v>
       </c>
@@ -4415,24 +4560,24 @@
       <c r="S75" s="1"/>
     </row>
     <row r="76" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="139" t="s">
+      <c r="B76" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="140"/>
+      <c r="C76" s="109"/>
       <c r="D76" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="140" t="s">
+      <c r="E76" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="F76" s="140"/>
+      <c r="F76" s="109"/>
       <c r="G76" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H76" s="141" t="s">
+      <c r="H76" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="I76" s="142"/>
+      <c r="I76" s="157"/>
       <c r="J76" s="29" t="s">
         <v>8</v>
       </c>
@@ -4489,24 +4634,24 @@
       <c r="S78" s="1"/>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B79" s="143" t="s">
+      <c r="B79" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="144"/>
+      <c r="C79" s="105"/>
       <c r="D79" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="144" t="s">
+      <c r="E79" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="F79" s="144"/>
+      <c r="F79" s="105"/>
       <c r="G79" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H79" s="144" t="s">
+      <c r="H79" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="I79" s="144"/>
+      <c r="I79" s="105"/>
       <c r="J79" s="26" t="s">
         <v>3</v>
       </c>
@@ -4521,18 +4666,18 @@
       <c r="S79" s="1"/>
     </row>
     <row r="80" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="139" t="s">
+      <c r="B80" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="C80" s="140"/>
+      <c r="C80" s="109"/>
       <c r="D80" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="140"/>
-      <c r="F80" s="140"/>
+      <c r="E80" s="109"/>
+      <c r="F80" s="109"/>
       <c r="G80" s="28"/>
-      <c r="H80" s="141"/>
-      <c r="I80" s="142"/>
+      <c r="H80" s="156"/>
+      <c r="I80" s="157"/>
       <c r="J80" s="29"/>
       <c r="K80" s="17"/>
       <c r="L80" s="1"/>
@@ -4587,17 +4732,17 @@
       <c r="S82" s="1"/>
     </row>
     <row r="83" spans="2:19" s="82" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="130" t="s">
+      <c r="B83" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
-      <c r="F83" s="131"/>
-      <c r="G83" s="131"/>
-      <c r="H83" s="131"/>
-      <c r="I83" s="131"/>
-      <c r="J83" s="132"/>
+      <c r="C83" s="189"/>
+      <c r="D83" s="189"/>
+      <c r="E83" s="189"/>
+      <c r="F83" s="189"/>
+      <c r="G83" s="189"/>
+      <c r="H83" s="189"/>
+      <c r="I83" s="189"/>
+      <c r="J83" s="190"/>
       <c r="K83" s="16"/>
       <c r="L83" s="83"/>
       <c r="M83" s="83"/>
@@ -4609,15 +4754,15 @@
       <c r="S83" s="83"/>
     </row>
     <row r="84" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="133"/>
-      <c r="C84" s="134"/>
-      <c r="D84" s="134"/>
-      <c r="E84" s="134"/>
-      <c r="F84" s="134"/>
-      <c r="G84" s="134"/>
-      <c r="H84" s="134"/>
-      <c r="I84" s="134"/>
-      <c r="J84" s="135"/>
+      <c r="B84" s="191"/>
+      <c r="C84" s="192"/>
+      <c r="D84" s="192"/>
+      <c r="E84" s="192"/>
+      <c r="F84" s="192"/>
+      <c r="G84" s="192"/>
+      <c r="H84" s="192"/>
+      <c r="I84" s="192"/>
+      <c r="J84" s="193"/>
       <c r="K84" s="17"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
@@ -4629,15 +4774,15 @@
       <c r="S84" s="1"/>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B85" s="136"/>
-      <c r="C85" s="137"/>
-      <c r="D85" s="137"/>
-      <c r="E85" s="137"/>
-      <c r="F85" s="137"/>
-      <c r="G85" s="137"/>
-      <c r="H85" s="137"/>
-      <c r="I85" s="137"/>
-      <c r="J85" s="138"/>
+      <c r="B85" s="194"/>
+      <c r="C85" s="195"/>
+      <c r="D85" s="195"/>
+      <c r="E85" s="195"/>
+      <c r="F85" s="195"/>
+      <c r="G85" s="195"/>
+      <c r="H85" s="195"/>
+      <c r="I85" s="195"/>
+      <c r="J85" s="196"/>
       <c r="K85" s="92"/>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.4">
@@ -4653,520 +4798,569 @@
       <c r="K86" s="92"/>
     </row>
     <row r="87" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="121"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="122"/>
-      <c r="E87" s="122"/>
-      <c r="F87" s="122"/>
-      <c r="G87" s="122"/>
-      <c r="H87" s="122"/>
-      <c r="I87" s="122"/>
-      <c r="J87" s="123"/>
+      <c r="B87" s="212"/>
+      <c r="C87" s="213"/>
+      <c r="D87" s="213"/>
+      <c r="E87" s="213"/>
+      <c r="F87" s="213"/>
+      <c r="G87" s="213"/>
+      <c r="H87" s="213"/>
+      <c r="I87" s="213"/>
+      <c r="J87" s="214"/>
       <c r="K87" s="92"/>
     </row>
     <row r="88" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="89" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="124" t="s">
+      <c r="B89" s="215" t="s">
         <v>109</v>
       </c>
-      <c r="C89" s="125"/>
-      <c r="D89" s="125"/>
-      <c r="E89" s="125"/>
-      <c r="F89" s="125"/>
-      <c r="G89" s="125"/>
-      <c r="H89" s="125"/>
-      <c r="I89" s="125"/>
-      <c r="J89" s="126"/>
+      <c r="C89" s="216"/>
+      <c r="D89" s="216"/>
+      <c r="E89" s="216"/>
+      <c r="F89" s="216"/>
+      <c r="G89" s="216"/>
+      <c r="H89" s="216"/>
+      <c r="I89" s="216"/>
+      <c r="J89" s="217"/>
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B90" s="108"/>
-      <c r="C90" s="109"/>
-      <c r="D90" s="109"/>
-      <c r="E90" s="109"/>
-      <c r="F90" s="110"/>
+      <c r="B90" s="201"/>
+      <c r="C90" s="202"/>
+      <c r="D90" s="202"/>
+      <c r="E90" s="202"/>
+      <c r="F90" s="203"/>
       <c r="G90" s="34"/>
       <c r="H90" s="97"/>
       <c r="I90" s="97"/>
       <c r="J90" s="98"/>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B91" s="111"/>
-      <c r="C91" s="112"/>
-      <c r="D91" s="112"/>
-      <c r="E91" s="112"/>
-      <c r="F91" s="113"/>
+      <c r="B91" s="204"/>
+      <c r="C91" s="185"/>
+      <c r="D91" s="185"/>
+      <c r="E91" s="185"/>
+      <c r="F91" s="205"/>
       <c r="G91" s="35"/>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
       <c r="J91" s="99"/>
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B92" s="111"/>
-      <c r="C92" s="112"/>
-      <c r="D92" s="112"/>
-      <c r="E92" s="112"/>
-      <c r="F92" s="113"/>
+      <c r="B92" s="204"/>
+      <c r="C92" s="185"/>
+      <c r="D92" s="185"/>
+      <c r="E92" s="185"/>
+      <c r="F92" s="205"/>
       <c r="G92" s="35"/>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
       <c r="J92" s="99"/>
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B93" s="111"/>
-      <c r="C93" s="112"/>
-      <c r="D93" s="112"/>
-      <c r="E93" s="112"/>
-      <c r="F93" s="113"/>
+      <c r="B93" s="204"/>
+      <c r="C93" s="185"/>
+      <c r="D93" s="185"/>
+      <c r="E93" s="185"/>
+      <c r="F93" s="205"/>
       <c r="G93" s="35"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
       <c r="J93" s="99"/>
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B94" s="111"/>
-      <c r="C94" s="112"/>
-      <c r="D94" s="112"/>
-      <c r="E94" s="112"/>
-      <c r="F94" s="113"/>
+      <c r="B94" s="204"/>
+      <c r="C94" s="185"/>
+      <c r="D94" s="185"/>
+      <c r="E94" s="185"/>
+      <c r="F94" s="205"/>
       <c r="G94" s="35"/>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
       <c r="J94" s="99"/>
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B95" s="111"/>
-      <c r="C95" s="112"/>
-      <c r="D95" s="112"/>
-      <c r="E95" s="112"/>
-      <c r="F95" s="113"/>
+      <c r="B95" s="204"/>
+      <c r="C95" s="185"/>
+      <c r="D95" s="185"/>
+      <c r="E95" s="185"/>
+      <c r="F95" s="205"/>
       <c r="G95" s="35"/>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
       <c r="J95" s="99"/>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B96" s="111"/>
-      <c r="C96" s="112"/>
-      <c r="D96" s="112"/>
-      <c r="E96" s="112"/>
-      <c r="F96" s="113"/>
+      <c r="B96" s="204"/>
+      <c r="C96" s="185"/>
+      <c r="D96" s="185"/>
+      <c r="E96" s="185"/>
+      <c r="F96" s="205"/>
       <c r="G96" s="35"/>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
       <c r="J96" s="99"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B97" s="111"/>
-      <c r="C97" s="112"/>
-      <c r="D97" s="112"/>
-      <c r="E97" s="112"/>
-      <c r="F97" s="113"/>
+      <c r="B97" s="204"/>
+      <c r="C97" s="185"/>
+      <c r="D97" s="185"/>
+      <c r="E97" s="185"/>
+      <c r="F97" s="205"/>
       <c r="G97" s="35"/>
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
       <c r="J97" s="99"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B98" s="111"/>
-      <c r="C98" s="112"/>
-      <c r="D98" s="112"/>
-      <c r="E98" s="112"/>
-      <c r="F98" s="113"/>
+      <c r="B98" s="204"/>
+      <c r="C98" s="185"/>
+      <c r="D98" s="185"/>
+      <c r="E98" s="185"/>
+      <c r="F98" s="205"/>
       <c r="G98" s="35"/>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
       <c r="J98" s="99"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B99" s="111"/>
-      <c r="C99" s="112"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="113"/>
+      <c r="B99" s="204"/>
+      <c r="C99" s="185"/>
+      <c r="D99" s="185"/>
+      <c r="E99" s="185"/>
+      <c r="F99" s="205"/>
       <c r="G99" s="35"/>
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
       <c r="J99" s="99"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B100" s="111"/>
-      <c r="C100" s="112"/>
-      <c r="D100" s="112"/>
-      <c r="E100" s="112"/>
-      <c r="F100" s="113"/>
+      <c r="B100" s="204"/>
+      <c r="C100" s="185"/>
+      <c r="D100" s="185"/>
+      <c r="E100" s="185"/>
+      <c r="F100" s="205"/>
       <c r="G100" s="35"/>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
       <c r="J100" s="99"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B101" s="127"/>
-      <c r="C101" s="128"/>
-      <c r="D101" s="128"/>
-      <c r="E101" s="128"/>
-      <c r="F101" s="129"/>
+      <c r="B101" s="218"/>
+      <c r="C101" s="219"/>
+      <c r="D101" s="219"/>
+      <c r="E101" s="219"/>
+      <c r="F101" s="220"/>
       <c r="G101" s="44"/>
       <c r="H101" s="43"/>
       <c r="I101" s="43"/>
       <c r="J101" s="100"/>
     </row>
     <row r="102" spans="2:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B102" s="114" t="s">
+      <c r="B102" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="115"/>
-      <c r="D102" s="116" t="s">
+      <c r="C102" s="207"/>
+      <c r="D102" s="208" t="s">
         <v>111</v>
       </c>
-      <c r="E102" s="117"/>
-      <c r="F102" s="118"/>
+      <c r="E102" s="209"/>
+      <c r="F102" s="210"/>
       <c r="G102" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="H102" s="119" t="s">
+      <c r="H102" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="I102" s="115"/>
-      <c r="J102" s="120"/>
+      <c r="I102" s="207"/>
+      <c r="J102" s="211"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B103" s="108"/>
-      <c r="C103" s="109"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="109"/>
-      <c r="F103" s="110"/>
+      <c r="B103" s="201"/>
+      <c r="C103" s="202"/>
+      <c r="D103" s="202"/>
+      <c r="E103" s="202"/>
+      <c r="F103" s="203"/>
       <c r="G103" s="34"/>
       <c r="H103" s="97"/>
       <c r="I103" s="97"/>
       <c r="J103" s="98"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B104" s="111"/>
-      <c r="C104" s="112"/>
-      <c r="D104" s="112"/>
-      <c r="E104" s="112"/>
-      <c r="F104" s="113"/>
+      <c r="B104" s="204"/>
+      <c r="C104" s="185"/>
+      <c r="D104" s="185"/>
+      <c r="E104" s="185"/>
+      <c r="F104" s="205"/>
       <c r="G104" s="35"/>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
       <c r="J104" s="99"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B105" s="111"/>
-      <c r="C105" s="112"/>
-      <c r="D105" s="112"/>
-      <c r="E105" s="112"/>
-      <c r="F105" s="113"/>
+      <c r="B105" s="204"/>
+      <c r="C105" s="185"/>
+      <c r="D105" s="185"/>
+      <c r="E105" s="185"/>
+      <c r="F105" s="205"/>
       <c r="G105" s="35"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
       <c r="J105" s="99"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B106" s="111"/>
-      <c r="C106" s="112"/>
-      <c r="D106" s="112"/>
-      <c r="E106" s="112"/>
-      <c r="F106" s="113"/>
+      <c r="B106" s="204"/>
+      <c r="C106" s="185"/>
+      <c r="D106" s="185"/>
+      <c r="E106" s="185"/>
+      <c r="F106" s="205"/>
       <c r="G106" s="35"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
       <c r="J106" s="99"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B107" s="111"/>
-      <c r="C107" s="112"/>
-      <c r="D107" s="112"/>
-      <c r="E107" s="112"/>
-      <c r="F107" s="113"/>
+      <c r="B107" s="204"/>
+      <c r="C107" s="185"/>
+      <c r="D107" s="185"/>
+      <c r="E107" s="185"/>
+      <c r="F107" s="205"/>
       <c r="G107" s="35"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
       <c r="J107" s="99"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B108" s="111"/>
-      <c r="C108" s="112"/>
-      <c r="D108" s="112"/>
-      <c r="E108" s="112"/>
-      <c r="F108" s="113"/>
+      <c r="B108" s="204"/>
+      <c r="C108" s="185"/>
+      <c r="D108" s="185"/>
+      <c r="E108" s="185"/>
+      <c r="F108" s="205"/>
       <c r="G108" s="35"/>
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
       <c r="J108" s="99"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B109" s="111"/>
-      <c r="C109" s="112"/>
-      <c r="D109" s="112"/>
-      <c r="E109" s="112"/>
-      <c r="F109" s="113"/>
+      <c r="B109" s="204"/>
+      <c r="C109" s="185"/>
+      <c r="D109" s="185"/>
+      <c r="E109" s="185"/>
+      <c r="F109" s="205"/>
       <c r="G109" s="35"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
       <c r="J109" s="99"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B110" s="111"/>
-      <c r="C110" s="112"/>
-      <c r="D110" s="112"/>
-      <c r="E110" s="112"/>
-      <c r="F110" s="113"/>
+      <c r="B110" s="204"/>
+      <c r="C110" s="185"/>
+      <c r="D110" s="185"/>
+      <c r="E110" s="185"/>
+      <c r="F110" s="205"/>
       <c r="G110" s="35"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
       <c r="J110" s="99"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B111" s="111"/>
-      <c r="C111" s="112"/>
-      <c r="D111" s="112"/>
-      <c r="E111" s="112"/>
-      <c r="F111" s="113"/>
+      <c r="B111" s="204"/>
+      <c r="C111" s="185"/>
+      <c r="D111" s="185"/>
+      <c r="E111" s="185"/>
+      <c r="F111" s="205"/>
       <c r="G111" s="35"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
       <c r="J111" s="99"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B112" s="111"/>
-      <c r="C112" s="112"/>
-      <c r="D112" s="112"/>
-      <c r="E112" s="112"/>
-      <c r="F112" s="113"/>
+      <c r="B112" s="204"/>
+      <c r="C112" s="185"/>
+      <c r="D112" s="185"/>
+      <c r="E112" s="185"/>
+      <c r="F112" s="205"/>
       <c r="G112" s="35"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
       <c r="J112" s="99"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B113" s="111"/>
-      <c r="C113" s="112"/>
-      <c r="D113" s="112"/>
-      <c r="E113" s="112"/>
-      <c r="F113" s="113"/>
+      <c r="B113" s="204"/>
+      <c r="C113" s="185"/>
+      <c r="D113" s="185"/>
+      <c r="E113" s="185"/>
+      <c r="F113" s="205"/>
       <c r="G113" s="35"/>
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
       <c r="J113" s="99"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B114" s="111"/>
-      <c r="C114" s="112"/>
-      <c r="D114" s="112"/>
-      <c r="E114" s="112"/>
-      <c r="F114" s="113"/>
+      <c r="B114" s="204"/>
+      <c r="C114" s="185"/>
+      <c r="D114" s="185"/>
+      <c r="E114" s="185"/>
+      <c r="F114" s="205"/>
       <c r="G114" s="35"/>
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
       <c r="J114" s="99"/>
     </row>
     <row r="115" spans="2:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B115" s="114" t="s">
+      <c r="B115" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="C115" s="115"/>
-      <c r="D115" s="116" t="s">
+      <c r="C115" s="207"/>
+      <c r="D115" s="208" t="s">
         <v>113</v>
       </c>
-      <c r="E115" s="117"/>
-      <c r="F115" s="118"/>
+      <c r="E115" s="209"/>
+      <c r="F115" s="210"/>
       <c r="G115" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="H115" s="119" t="s">
+      <c r="H115" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="I115" s="115"/>
-      <c r="J115" s="120"/>
+      <c r="I115" s="207"/>
+      <c r="J115" s="211"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B116" s="108"/>
-      <c r="C116" s="109"/>
-      <c r="D116" s="109"/>
-      <c r="E116" s="109"/>
-      <c r="F116" s="110"/>
+      <c r="B116" s="201"/>
+      <c r="C116" s="202"/>
+      <c r="D116" s="202"/>
+      <c r="E116" s="202"/>
+      <c r="F116" s="203"/>
       <c r="G116" s="34"/>
       <c r="H116" s="97"/>
       <c r="I116" s="97"/>
       <c r="J116" s="98"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B117" s="111"/>
-      <c r="C117" s="112"/>
-      <c r="D117" s="112"/>
-      <c r="E117" s="112"/>
-      <c r="F117" s="113"/>
+      <c r="B117" s="204"/>
+      <c r="C117" s="185"/>
+      <c r="D117" s="185"/>
+      <c r="E117" s="185"/>
+      <c r="F117" s="205"/>
       <c r="G117" s="35"/>
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
       <c r="J117" s="99"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B118" s="111"/>
-      <c r="C118" s="112"/>
-      <c r="D118" s="112"/>
-      <c r="E118" s="112"/>
-      <c r="F118" s="113"/>
+      <c r="B118" s="204"/>
+      <c r="C118" s="185"/>
+      <c r="D118" s="185"/>
+      <c r="E118" s="185"/>
+      <c r="F118" s="205"/>
       <c r="G118" s="35"/>
       <c r="H118" s="17"/>
       <c r="I118" s="17"/>
       <c r="J118" s="99"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B119" s="111"/>
-      <c r="C119" s="112"/>
-      <c r="D119" s="112"/>
-      <c r="E119" s="112"/>
-      <c r="F119" s="113"/>
+      <c r="B119" s="204"/>
+      <c r="C119" s="185"/>
+      <c r="D119" s="185"/>
+      <c r="E119" s="185"/>
+      <c r="F119" s="205"/>
       <c r="G119" s="35"/>
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
       <c r="J119" s="99"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B120" s="111"/>
-      <c r="C120" s="112"/>
-      <c r="D120" s="112"/>
-      <c r="E120" s="112"/>
-      <c r="F120" s="113"/>
+      <c r="B120" s="204"/>
+      <c r="C120" s="185"/>
+      <c r="D120" s="185"/>
+      <c r="E120" s="185"/>
+      <c r="F120" s="205"/>
       <c r="G120" s="35"/>
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
       <c r="J120" s="99"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B121" s="111"/>
-      <c r="C121" s="112"/>
-      <c r="D121" s="112"/>
-      <c r="E121" s="112"/>
-      <c r="F121" s="113"/>
+      <c r="B121" s="204"/>
+      <c r="C121" s="185"/>
+      <c r="D121" s="185"/>
+      <c r="E121" s="185"/>
+      <c r="F121" s="205"/>
       <c r="G121" s="35"/>
       <c r="H121" s="17"/>
       <c r="I121" s="17"/>
       <c r="J121" s="99"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B122" s="111"/>
-      <c r="C122" s="112"/>
-      <c r="D122" s="112"/>
-      <c r="E122" s="112"/>
-      <c r="F122" s="113"/>
+      <c r="B122" s="204"/>
+      <c r="C122" s="185"/>
+      <c r="D122" s="185"/>
+      <c r="E122" s="185"/>
+      <c r="F122" s="205"/>
       <c r="G122" s="35"/>
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
       <c r="J122" s="99"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B123" s="111"/>
-      <c r="C123" s="112"/>
-      <c r="D123" s="112"/>
-      <c r="E123" s="112"/>
-      <c r="F123" s="113"/>
+      <c r="B123" s="204"/>
+      <c r="C123" s="185"/>
+      <c r="D123" s="185"/>
+      <c r="E123" s="185"/>
+      <c r="F123" s="205"/>
       <c r="G123" s="35"/>
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
       <c r="J123" s="99"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B124" s="111"/>
-      <c r="C124" s="112"/>
-      <c r="D124" s="112"/>
-      <c r="E124" s="112"/>
-      <c r="F124" s="113"/>
+      <c r="B124" s="204"/>
+      <c r="C124" s="185"/>
+      <c r="D124" s="185"/>
+      <c r="E124" s="185"/>
+      <c r="F124" s="205"/>
       <c r="G124" s="35"/>
       <c r="H124" s="17"/>
       <c r="I124" s="17"/>
       <c r="J124" s="99"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B125" s="111"/>
-      <c r="C125" s="112"/>
-      <c r="D125" s="112"/>
-      <c r="E125" s="112"/>
-      <c r="F125" s="113"/>
+      <c r="B125" s="204"/>
+      <c r="C125" s="185"/>
+      <c r="D125" s="185"/>
+      <c r="E125" s="185"/>
+      <c r="F125" s="205"/>
       <c r="G125" s="35"/>
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
       <c r="J125" s="99"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B126" s="111"/>
-      <c r="C126" s="112"/>
-      <c r="D126" s="112"/>
-      <c r="E126" s="112"/>
-      <c r="F126" s="113"/>
+      <c r="B126" s="204"/>
+      <c r="C126" s="185"/>
+      <c r="D126" s="185"/>
+      <c r="E126" s="185"/>
+      <c r="F126" s="205"/>
       <c r="G126" s="35"/>
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
       <c r="J126" s="99"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B127" s="111"/>
-      <c r="C127" s="112"/>
-      <c r="D127" s="112"/>
-      <c r="E127" s="112"/>
-      <c r="F127" s="113"/>
+      <c r="B127" s="204"/>
+      <c r="C127" s="185"/>
+      <c r="D127" s="185"/>
+      <c r="E127" s="185"/>
+      <c r="F127" s="205"/>
       <c r="G127" s="35"/>
       <c r="H127" s="17"/>
       <c r="I127" s="17"/>
       <c r="J127" s="99"/>
     </row>
     <row r="128" spans="2:10" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B128" s="101" t="s">
+      <c r="B128" s="197" t="s">
         <v>110</v>
       </c>
-      <c r="C128" s="102"/>
-      <c r="D128" s="103" t="s">
+      <c r="C128" s="124"/>
+      <c r="D128" s="198" t="s">
         <v>115</v>
       </c>
-      <c r="E128" s="104"/>
-      <c r="F128" s="105"/>
+      <c r="E128" s="199"/>
+      <c r="F128" s="200"/>
       <c r="G128" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="H128" s="106" t="s">
+      <c r="H128" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="I128" s="102"/>
-      <c r="J128" s="107"/>
+      <c r="I128" s="124"/>
+      <c r="J128" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="B103:F114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="B116:F127"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B89:J89"/>
+    <mergeCell ref="B90:F101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="B83:J83"/>
+    <mergeCell ref="B84:J84"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B12:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="C5:F5"/>
@@ -5191,89 +5385,40 @@
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B12:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="B83:J83"/>
-    <mergeCell ref="B84:J84"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="B103:F114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="H115:J115"/>
-    <mergeCell ref="B116:F127"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B89:J89"/>
-    <mergeCell ref="B90:F101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
